--- a/biology/Médecine/Muscle_piriforme/Muscle_piriforme.xlsx
+++ b/biology/Médecine/Muscle_piriforme/Muscle_piriforme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle piriforme (Musculus piriformis - nomenclatures internationales) ou muscle pyramidal du bassin (dans l'ancienne nomenclature française) est un muscle du membre inférieur.
 Il fait partie des muscles fessiers profonds et des muscles pelvi-trochantériens.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle piriforme est un muscle plat et triangulaire reliant le sacrum au fémur.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le muscle piriforme se fixe sur :
 la face antéro-latérale du sacrum entre les 2e et 3e foramens sacrés antérieurs par trois digitations,
@@ -575,50 +591,56 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle piriforme a une forme de poire. Il se dirige en dehors, en avant et en bas.
-La face postérieure du muscle repose contre le sacrum. La face antérieure du muscle est liée au rectum (surtout du côté gauche du corps) et au plexus sacré[1]. 
+La face postérieure du muscle repose contre le sacrum. La face antérieure du muscle est liée au rectum (surtout du côté gauche du corps) et au plexus sacré. 
 traverse la grande incisure ischiatique qu'il partage en deux espaces : supra-piriforme et sous-piriforme.
-Variation
-Dans environ 80% de la population, le nerf sciatique passe sous le muscle piriforme.  Chez 17 % des personnes, le nerf sciatique traverse le muscle piriforme. Il existe d'autres variations plus rares.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_piriforme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_piriforme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans environ 80% de la population, le nerf sciatique passe sous le muscle piriforme.  Chez 17 % des personnes, le nerf sciatique traverse le muscle piriforme. Il existe d'autres variations plus rares.
 Il peut être uni au muscle moyen glutéal, envoyer des fibres au muscle petit glutéal ou recevoir des fibres du muscle jumeau supérieur.
 Il peut avoir une ou deux attaches sacrées et s'insérer sur la capsule de l'articulation coxale.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Muscle_piriforme</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Muscle_piriforme</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Terminaison</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle piriforme se termine par un tendon qui s'insère sur le bord supérieur du grand trochanter.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -640,12 +662,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Innervation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle piriforme est innervé par le nerf du muscle piriforme, branche de division postérieure du plexus sacral (racines S1, S2)
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle piriforme se termine par un tendon qui s'insère sur le bord supérieur du grand trochanter.
 </t>
         </is>
       </c>
@@ -671,12 +695,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle piriforme est vascularisé par les artères glutéales et sacrales.
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle piriforme est innervé par le nerf du muscle piriforme, branche de division postérieure du plexus sacral (racines S1, S2)
 </t>
         </is>
       </c>
@@ -702,10 +728,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle piriforme est vascularisé par les artères glutéales et sacrales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muscle_piriforme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_piriforme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Le muscle piriforme fait partie des muscles qui ferment l'enceinte du bassin pour séparer les viscères pelviens de la racine des membres inférieurs.
 Il est:
@@ -715,36 +776,76 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Muscle_piriforme</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Muscle_piriforme</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muscle_piriforme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_piriforme</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Point de repère
-Le muscle piriforme est un repère très important dans la région fessière. En traversant la grande incisure ischiatique, il la divise en une partie inférieure et une partie supérieure, déterminant ainsi la terminologie supérieure (au-dessus du muscle) et inférieure (en dessous du muscle) pour les nerfs et vaisseaux de la région.
-Syndrome du piriforme
-Du fait de la proximité du nerf sciatique avec le muscle piriforme, voire son passage à travers ce muscle, sa sollicitation excessive peut entraîner une inflammation du nerf. Son surmenage peut advenir dans certains sports (course à pied, cyclisme, ...) ou survenir lors d'une mauvaise posture récurrente (mauvais siège et mauvais appui fessier). Ceci peut avoir pour conséquence l'apparition d'un syndrome de type sciatique appelé syndrome du piriforme.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Point de repère</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle piriforme est un repère très important dans la région fessière. En traversant la grande incisure ischiatique, il la divise en une partie inférieure et une partie supérieure, déterminant ainsi la terminologie supérieure (au-dessus du muscle) et inférieure (en dessous du muscle) pour les nerfs et vaisseaux de la région.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Muscle_piriforme</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_piriforme</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Syndrome du piriforme</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du fait de la proximité du nerf sciatique avec le muscle piriforme, voire son passage à travers ce muscle, sa sollicitation excessive peut entraîner une inflammation du nerf. Son surmenage peut advenir dans certains sports (course à pied, cyclisme, ...) ou survenir lors d'une mauvaise posture récurrente (mauvais siège et mauvais appui fessier). Ceci peut avoir pour conséquence l'apparition d'un syndrome de type sciatique appelé syndrome du piriforme.
 </t>
         </is>
       </c>
